--- a/extracted_text.xlsx
+++ b/extracted_text.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Taxpayer  Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Email  Address</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Certificate Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>PIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Taxpayer  Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Email  Address</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -551,37 +551,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02/11/2016</t>
+          <t>AGROLT SOLUTIONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P051619980A</t>
+          <t>AGROLTSOLUTIONSPVTLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AKASH DISTRIBUTORS (K) LIMITED</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AKASHDISTRIBUTORSITAX@GMAIL.COM</t>
+          <t>P052067762K</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LR. 209/136/68</t>
+          <t>PARKLANDS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CBD</t>
+          <t>PARKSUITES BUILDING</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CROSS RD</t>
+          <t>PARKLANDS RD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -596,68 +596,68 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Starehe District</t>
+          <t>Westlands District</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>: Ngara</t>
+          <t>: Westlands</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North of Nairobi</t>
+          <t>West of Nairobi</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40878</v>
+        <v>38664</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>623</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>01/11/2016</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Income Tax - PAYE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>01/11/2016</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -674,25 +674,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>AKASH DISTRIBUTORS (K) LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A003984467N</t>
+          <t>AKASHDISTRIBUTORSLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASHWINBHAI CHHOTABHAI PATEL</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARCHANAHARDWARE@YAHOO.COM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>P051619980A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LR. 209/136/68</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>CBD</t>
@@ -700,49 +704,48 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>morden rd</t>
+          <t>CROSS RD</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Uasin Gishu</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Eldoret West District</t>
+          <t>Starehe District</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>: Eldoret</t>
+          <t>: Ngara</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>North of Nairobi</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8119</v>
+        <v>40878</v>
       </c>
       <c r="N3" t="n">
-        <v>30100</v>
+        <v>100</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Income Tax - Resident
-Individual</t>
+          <t>Income Tax - Company</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>19/04/2007</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -757,19 +760,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Individual
-Value Added Tax (VAT)</t>
+          <t>Income Tax - PAYE</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N.A.
-N.A.</t>
+          <t>N.A.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -796,33 +797,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>AMBE HARDWARE STORES LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P051642956N</t>
+          <t>AMBEHARDWARESTORESLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOOKSMART CONSULTANCY LIMITED</t>
+          <t>17/07/2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SANDIP@BOOKSMARTCONSULT.COM</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>P052238348J</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PARKLANDS</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>parkland rd</t>
+          <t>MAI MAHIU NAROK JUNCTION</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -837,17 +842,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Starehe District</t>
+          <t>Westlands District</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>: Parklands</t>
+          <t>: Westlands</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>North of Nairobi</t>
+          <t>West of Nairobi</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -858,32 +863,32 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>13/07/2023</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>Income Tax - PAYE</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>20/04/2017</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>20/04/2017</t>
+          <t>13/07/2023</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -898,7 +903,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>19/04/2017</t>
+          <t>13/07/2023</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -915,75 +920,74 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>ANAMAYA LIMITED</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A002921680W</t>
+          <t>ANAMAYALTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JAYANTILAL MOHANBHAI AMIPARA</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DISHATRADERS2015@YAHOO.COM</t>
+          <t>P052166838G</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>kcb</t>
+          <t>DEVELOPMENT HOUSE</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>kapsabet rd</t>
+          <t>MOI AVENUE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Kapsabet</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Nandi</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Nandi Central District</t>
+          <t>Starehe District</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>: Kapsabet</t>
+          <t>: CBD</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>North of Nairobi</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>37825</v>
       </c>
       <c r="N5" t="n">
-        <v>30300</v>
+        <v>100</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Income Tax - Resident
-Individual</t>
+          <t>Income Tax - PAYE</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>31/01/2009</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -998,29 +1002,27 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Individual
-Value Added Tax (VAT)</t>
+          <t>Value Added Tax (VAT)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>N.A.
-N.A.</t>
+          <t>N.A.</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Value Added Tax (VAT)</t>
+          <t>Income Tax - Company</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>11/11/2022</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1037,38 +1039,38 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17/07/2019</t>
+          <t>BATU BATU GARDEN ESTATE ASSOCIATION</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P051455327D</t>
+          <t>BATUBATUITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FASHION WORLD LIMITED</t>
+          <t>28/07/2022</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FASHIONWORLDTZ@GMAIL.COM</t>
+          <t>P051872179T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TRANSNATIONAL PLAZA</t>
+          <t>PARKLANDS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CITY HALL WAY</t>
+          <t>PARKLANDS RD</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>NAIROBI CITY (WEST)</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1078,24 +1080,24 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Westlands District</t>
+          <t>Nairobi East District</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>: Westlands</t>
+          <t>: Nairobi East</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>West of Nairobi</t>
+          <t>East of Nairobi</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>29294</v>
+        <v>39398</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>623</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1104,7 +1106,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1124,7 +1126,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>14/01/2017</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1140,40 +1142,44 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>BEARINGS AND INDUSTRIAL SUPPLIES LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P051772553L</t>
+          <t>BEARINGSINDUSTRIESLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GEEYANZI TRADING CO LIMITED</t>
+          <t>02/12/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GEEYANZITRADINGCOLTDITAX@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>P051126833W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>209/3510</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>SILENTFLOW</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BUTERE ROAD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>NAIROBI</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GARISSA RD</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NAIROBI</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Nairobi</t>
@@ -1195,54 +1201,54 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>73423</v>
+        <v>41778</v>
       </c>
       <c r="N7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>22/04/1999</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>Value Added Tax (VAT)</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>18/03/2019</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>01/09/1993</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>Income Tax - PAYE</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>18/03/2019</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Income Tax - Company</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1259,47 +1265,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/11/2020</t>
+          <t>BIN TECH CONSULTANCY LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P051951205V</t>
+          <t>BINTECHCONSULTANCYLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JALARAM MINI MART LIMITED</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jalaramminimartltditax@gmail.com</t>
+          <t>P051813230X</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>209/2167</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KALSON TOWERS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>22 THE CRESCENT /OFF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PARKLANDS</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>MPAKA ROAD</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>oad :PARKLANDS ROA
+Nairobi</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1309,167 +1316,185 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>: Parklands</t>
+          <t>Nairobi
+: Ngara</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>North of Nairobi</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>246</v>
-      </c>
-      <c r="N8" t="n">
-        <v>623</v>
+          <t>Starehe District
+North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Ngara</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>h of Nairobi
+00623</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Income Tax - PAYE</t>
+          <t>Tax Obligation(s)
+Income Tax - PAYE</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>02/10/2020</t>
+          <t>fective From Date
+17/02/2022</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>ective Till Date
+N.A.</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Active
+Active</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Value Added Tax (VAT)</t>
+          <t>Income Tax - PAYE
+Value Added Tax (VAT)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>02/10/2020</t>
+          <t>17/02/2022
+01/08/2019</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>N.A.
+N.A.</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Income Tax - Company</t>
+          <t>Value Added Tax (VAT)
+Income Tax - Company</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>02/10/2020</t>
+          <t>01/08/2019
+18/07/2019</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>N.A.
+N.A.</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Active
+Active</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
+          <t>BINTECH IT SOLUTION LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P051454690L</t>
+          <t>BINTECHITSOLLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NISHA HOLDINGS LIMITED</t>
+          <t>24/11/2022</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ITAXNISHAHOLDINGSLTD@GMAIL.COM</t>
+          <t>P052169362J</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RUIRU</t>
+          <t>The Crescent</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>RAILWAY STRT</t>
+          <t>Parklands Road</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RUIRU</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Kiambu</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Ruiru District</t>
+          <t>Starehe District</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>: Ruiru</t>
+          <t>: Parklands</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Thika</t>
+          <t>North of Nairobi</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>11096</v>
+        <v>668</v>
       </c>
       <c r="N9" t="n">
-        <v>400</v>
+        <v>623</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>Value Added Tax (VAT)</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>12/03/2014</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Income Tax - PAYE</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>23/11/2022</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1484,7 +1509,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>24/02/2014</t>
+          <t>04/11/2022</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1501,42 +1526,38 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
+          <t>BOOKSMART CONSULTANCY LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P051091829T</t>
+          <t>BOOKSMARTCONSULTANCYLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PARIT ENTERPRISES (KISUMU) LIMITED</t>
+          <t>13/06/2022</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARITENTKSMLTDITAX@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>209/8734</t>
-        </is>
-      </c>
+          <t>P051642956N</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PLOT 209/8734</t>
+          <t>PARKLANDS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>YATTA ROAD</t>
+          <t>parkland rd</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NAIROBI CITY (EAST)</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1546,68 +1567,68 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Nairobi East District</t>
+          <t>Starehe District</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>: Nairobi East</t>
+          <t>: Parklands</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>MTO*</t>
+          <t>North of Nairobi</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>763</v>
+        <v>39549</v>
       </c>
       <c r="N10" t="n">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>20/04/2017</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>20/04/2017</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>23/02/1993</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Income Tax - PAYE</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>01/06/1994</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>01/09/1995</t>
+          <t>19/04/2017</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1624,143 +1645,163 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16/04/2020</t>
+          <t>COPPER SYNTEC LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P051730700Q</t>
+          <t>COPPERSYNTECLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RONSHER MANUFACTURERS LIMITED</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RONSHERLTD@GMAIL.COM</t>
+          <t>P052249266P</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Studio House</t>
+          <t>ATHI RIVER BUSINESS PARK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Plums Lane</t>
+          <t>ENTERPRISE ROAD</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>MACHAKOS</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>Machakos</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Westlands District</t>
+          <t>Athi River District</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>: Westlands</t>
+          <t>: Athi River</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>West of Nairobi</t>
+          <t>Machakos</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>9306</v>
+        <v>17550</v>
       </c>
       <c r="N11" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>Value Added Tax (VAT)</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>18/02/2020</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>25/08/2023</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>12/09/2018</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16/07/2019</t>
+          <t>DIGITAL REGENESYS LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P051697447W</t>
+          <t>DIGITALREGENESYSITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RUDRA TRADERS LIMITED</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RUDRATRADERSLIMITEDITAX@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>P052216846G</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PARKLANDS</t>
+          <t>Parksuits Building</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Parklands Road</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>NAIROBI</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>NAIROBI</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Nairobi</t>
@@ -1768,53 +1809,53 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Starehe District</t>
+          <t>Westlands District</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>: Parklands</t>
+          <t>: Westlands</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North of Nairobi</t>
+          <t>West of Nairobi</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15635</v>
+        <v>39549</v>
       </c>
       <c r="N12" t="n">
-        <v>100</v>
+        <v>623</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>04/05/2023</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>Income Tax - PAYE</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>21/03/2018</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1829,7 +1870,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>21/03/2018</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1846,65 +1887,65 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08/02/2018</t>
+          <t>FASHION WORLD LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P051651813S</t>
+          <t>FASHIONWORDLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SAAZ PHONES</t>
+          <t>14/05/2022</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ITAXSAAZ@GMAIL.COM</t>
+          <t>P051455327D</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>KIPTAGICH</t>
+          <t>TRANSNATIONAL PLAZA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>UGANDA ROAD</t>
+          <t>CITY HALL WAY</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ELDORET</t>
+          <t>NAIROBI CITY (WEST)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Uasin Gishu</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Eldoret West District</t>
+          <t>Westlands District</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>: Eldoret</t>
+          <t>: Westlands</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>West of Nairobi</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>52</v>
+        <v>29294</v>
       </c>
       <c r="N13" t="n">
-        <v>10402</v>
+        <v>100</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1913,7 +1954,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>07/02/2018</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1928,12 +1969,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Value Added Tax (VAT)</t>
+          <t>Income Tax - Company</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>04/07/2017</t>
+          <t>14/01/2017</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1941,89 +1982,77 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Income Tax - Partnership</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>29/05/2017</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13/11/2019</t>
+          <t>FILAMENT TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P051746377Y</t>
+          <t>filamenttechnologiesltditax@gmail.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SBNP VENTURES LIMITED</t>
+          <t>31/05/2022</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SNENTERPRISEKENYA@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>P052120068Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>204 miritini builsing</t>
+          <t>PARKSUITES PLAZA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>miritini road</t>
+          <t>PARKLANDS ROAD</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MIRITINI</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Mombasa</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>changamwe District</t>
+          <t>Starehe District</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>: Miritini</t>
+          <t>: Parklands</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Mombasa South</t>
+          <t>North of Nairobi</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>83559</v>
+        <v>13684</v>
       </c>
       <c r="N14" t="n">
-        <v>80100</v>
+        <v>800</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2032,7 +2061,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>02/04/2019</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2052,7 +2081,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>02/04/2019</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2067,7 +2096,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2084,37 +2113,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24/09/2015</t>
+          <t>FIVE ELEMENTS TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P051301353N</t>
+          <t>FIVELEMENTSITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SHAKTI PUMPS EA LIMITED</t>
+          <t>22/01/2018</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ACCOUNTS@OASISPOWER.CO.KE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>209/11370</t>
-        </is>
-      </c>
+          <t>P051653606B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SUNVIEW COMPLEX</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>79 ENTERPRISE ROAD</t>
+          <t>PARKLANDS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2139,43 +2164,43 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>East of Nairobi*</t>
+          <t>East of Nairobi</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>26520</v>
+        <v>13684</v>
       </c>
       <c r="N15" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>14/07/2017</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>14/05/2009</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Income Tax - PAYE</t>
-        </is>
-      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>14/07/2017</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2183,98 +2208,82 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>20/05/2009</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08/06/2015</t>
+          <t>GEEYANZI TRADING CO LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P051450884H</t>
+          <t>GEEYANZITRADINGCOLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHOP N SAVE ENTERPRISES</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SHOPNSAVEITAX@GMAIL.COM</t>
+          <t>P051772553L</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SHAMAKHOKHO</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>OFF KISUMU RD</t>
+          <t>GARISSA RD</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Unknown City</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Nandi</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Nandi Central District</t>
+          <t>Nairobi East District</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>: Kapsabet</t>
+          <t>: Nairobi East</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>East of Nairobi</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>61</v>
+        <v>73423</v>
       </c>
       <c r="N16" t="n">
-        <v>30300</v>
+        <v>200</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Income Tax - Partnership</t>
+          <t>Value Added Tax (VAT)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>14/05/2012</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2294,7 +2303,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>14/05/2012</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2304,12 +2313,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Value Added Tax (VAT)</t>
+          <t>Income Tax - Company</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>14/05/2012</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2326,38 +2335,38 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06/03/2019</t>
+          <t>HONEYCOMB PRODUCTION (K) LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P051714824F</t>
+          <t>HONEYCOMBPRODUCTIONLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SHREENATHJI DEVELOPERS CO</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SHREENATHJIDEVELOPERSCOITAX@GMAIL.COM</t>
+          <t>P051470842X</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SAMEER PARK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MSA RD</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>NAIROBI</t>
+          <t>NAIROBI CITY (EAST)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2381,19 +2390,19 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1532</v>
+        <v>79013</v>
       </c>
       <c r="N17" t="n">
-        <v>621</v>
+        <v>400</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Income Tax - PAYE</t>
+          <t>Income Tax - Turnover Tax</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2408,17 +2417,18 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Value Added Tax (VAT)</t>
+          <t>Income Tax - Company</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>16/07/2018</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>N.A.
+N.A.</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -2428,7 +2438,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>16/07/2018</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2445,69 +2455,65 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14/08/2020</t>
+          <t>INDOSELLA CONSTRUCTION EQUIPMENTS MFG LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P051375184M</t>
+          <t>INDOSELLACONSTRUCTIONITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SHYAM SUNDAR SUPERMARKET LIMITED</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SHYAMSUNDAR2015@YAHOO.COM</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>P051668563Y</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CENTRE POINT BUILDING</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MOI STREET</t>
+          <t>PARKLANDS ROAD</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ELDORET</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Uasin Gishu</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Eldoret West District</t>
+          <t>Westlands District</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>: Eldoret</t>
+          <t>: Highridge</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>West of Nairobi</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3676</v>
+        <v>39321</v>
       </c>
       <c r="N18" t="n">
-        <v>30100</v>
+        <v>623</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2516,7 +2522,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>13/08/2018</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2531,27 +2537,27 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>13/08/2018</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>25/11/2011</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2568,22 +2574,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>INFOBITINC LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P051832823E</t>
+          <t>INFOBITINCLTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNI METAL STORES LIMITED</t>
+          <t>04/10/2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>unimetal2019@gmail.com</t>
+          <t>P052256049F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2593,12 +2599,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Plot Number One Four Eight One Five</t>
+          <t>Eldoret Towers</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kayole Junction</t>
+          <t>Eldoret Nakuru Road</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2608,38 +2614,38 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>Uasin Gishu</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Embakasi District</t>
+          <t>Eldoret West District</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>: Komarock</t>
+          <t>: Eldoret</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>East of Nairobi</t>
+          <t>Eldoret</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>39565</v>
+        <v>4446</v>
       </c>
       <c r="N19" t="n">
-        <v>623</v>
+        <v>30100</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Income Tax - PAYE</t>
+          <t>Value Added Tax (VAT)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>03/10/2023</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2654,12 +2660,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Value Added Tax (VAT)</t>
+          <t>Income Tax - Company</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>08/09/2023</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2667,62 +2673,50 @@
           <t>N.A.</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Income Tax - Company</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>05/09/2019</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>JALARAM MINI MART LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P051883717J</t>
+          <t>jalaramminimartltditax@gmail.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNIVERSAL AUTO EXPERTS LIMITED</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UNIVERSALAUTOEXPERTSLLDITAX@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>P051951205V</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WESTLANDS</t>
+          <t>PARKLANDS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LOWER KABETE RD</t>
+          <t>MPAKA ROAD</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NAIROBI</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2732,21 +2726,21 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Westlands District</t>
+          <t>Starehe District</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>: Westlands</t>
+          <t>: Parklands</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>West of Nairobi</t>
+          <t>North of Nairobi</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38902</v>
+        <v>246</v>
       </c>
       <c r="N20" t="n">
         <v>623</v>
@@ -2758,7 +2752,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>02/10/2020</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2778,7 +2772,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>02/10/2020</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2793,7 +2787,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>25/02/2020</t>
+          <t>02/10/2020</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2810,38 +2804,38 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>JMR INFOTECH KENYA LIMITED</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P051467349O</t>
+          <t>JMRINFOTECHKENYALTDITAX@GMAIL.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNIVERSAL MOTORS LIMITED</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UNIVERSALMOTORSLTD.AS1@GMAIL.COM</t>
+          <t>P051416683O</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PARKLANDS</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GENERAL MATHENGE ROAD</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>NAIROBI CITY (NORTH)</t>
+          <t>NAIROBI</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2851,68 +2845,68 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Westlands District</t>
+          <t>Nairobi East District</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>: Westlands</t>
+          <t>: Nairobi East</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North of Nairobi*</t>
+          <t>East of Nairobi</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>38902</v>
+        <v>103635</v>
       </c>
       <c r="N21" t="n">
-        <v>623</v>
+        <v>100</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>30/04/2014</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Income Tax - PAYE</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>30/04/2014</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>30/04/2014</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -2929,117 +2923,3098 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13/06/2018</t>
+          <t>KENDU STEEL LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>KENDUSTEELLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07/02/2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P051884444Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>KISUMU PLAZA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>KINDUBAY KISUMU ROAD</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Kisumu</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Kisumu East District</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>: Kisumu CBD</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SIAYA</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>7522</v>
+      </c>
+      <c r="N22" t="n">
+        <v>40100</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>13/01/2020</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KORUWE PRODUCTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KORUWEPRODUCTSLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19/07/2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P051997296L</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>KISUMU</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>KSM RD</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>KISUMU</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Kisumu</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Kisumu East District</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>: Kisumu CBD</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Kisumu</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>1666</v>
+      </c>
+      <c r="N23" t="n">
+        <v>40100</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KUSHAL COMPANY LIMITED</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KUSHALCOMPANYLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>07/03/2014</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P051194725W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LONGONOT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>GIKONBA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Nairobi North District</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>: Nairobi North</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>East of Nairobi*</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>11763</v>
+      </c>
+      <c r="N24" t="n">
+        <v>400</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>14/12/2006</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>01/02/2007</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>11/04/2007</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LEO TECH MOBILITY LIMITED</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LEOTECHLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>13/03/2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P051719799L</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PARK OFFICE SUITES</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MSA RD</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Nairobi East District</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>: Nairobi East</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>East of Nairobi</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>38718</v>
+      </c>
+      <c r="N25" t="n">
+        <v>600</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>04/03/2023</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>26/03/2019</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>08/08/2018</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LIVEAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LIVEALLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23/09/2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P051986141Q</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>EMBASSY HOUSE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>HARAMBEE AVENUE</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Starehe District</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>: CBD</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>552</v>
+      </c>
+      <c r="N26" t="n">
+        <v>625</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>21/01/2022</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>12/02/2021</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MAHABALVIRA ENTERPRISES LIMITED</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MAHABALVIRAENTLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18/08/2022</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P052136891K</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PARKLANDS</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PARKLANDS ROAD</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>13706</v>
+      </c>
+      <c r="N27" t="n">
+        <v>800</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>18/08/2022</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>18/08/2022</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>18/08/2022</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MASANI ECO GREEN LIMITED</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MASANIECOGREENLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P052179724G</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TSS Towers</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Moi Avenue</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mombasa</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Mombasa North District</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>: Mombasa</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Mombasa North</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>83559</v>
+      </c>
+      <c r="N28" t="n">
+        <v>80100</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>21/12/2022</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NAZISH MOTORS LIMITED</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NAZISHMOTORSLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>30/06/2022</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P051103570Q</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>HAVEN COURT</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NAIROBI CITY</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>39828</v>
+      </c>
+      <c r="N29" t="n">
+        <v>623</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>27/09/1994</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>01/12/1994</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>27/09/1994</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NELATO TRADING LIMITED</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NELATOTRADINGLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P052209680N</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>OTC BUILDING</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>UKWALA ROAD</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Nairobi North District</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>: Nairobi North</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>31546</v>
+      </c>
+      <c r="N30" t="n">
+        <v>600</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>11/04/2023</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NIR DRILLING KENYA LIMITED</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NIRDRILLINGKENYALTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>22/08/2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P052233708T</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PARKSUITES BLDNG</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PARKLANDS TD</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Starehe District</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>: Parklands</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>39549</v>
+      </c>
+      <c r="N31" t="n">
+        <v>623</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OASIS POWER (A) LIMITED</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OASISPOWERALTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>03/06/2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P052120204Y</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PARKSUITES BUILDING</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>PARKLANDS ROAD</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Starehe District</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>: Parklands</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>26520</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>30/05/2022</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>30/05/2022</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>30/05/2022</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>OPTECH LENS TECHNOLOGIES LIMITED</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OPTECHLENSTECHLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22/12/2022</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P052178036B</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PARKSUITES BUILDING</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Parklands Road</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Starehe District</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>: Parklands</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>37825</v>
+      </c>
+      <c r="N33" t="n">
+        <v>100</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PATTHAR AFRICA LIMITED</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ITAXPATTHAR@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14/11/2017</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P051409856S</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Nairobi East District</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>: Nairobi East</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>East of Nairobi</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>41601</v>
+      </c>
+      <c r="N34" t="n">
+        <v>100</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>16/01/2013</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>01/03/2015</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>16/01/2013</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRASADAM LIMITED</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PRASADAMLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24/10/2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P052139993T</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PARKLANDS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PARKLANDS ROAD</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>38966</v>
+      </c>
+      <c r="N35" t="n">
+        <v>623</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RUTU HARDWARE LIMITED</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RUTUHARDWARELTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P052171545Z</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>KISUMU TOWN PLAZA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>KISUMU NAIROBI ROAD</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Kisumu</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Kisumu East District</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>: Kisumu CBD</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Kisumu</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>5522</v>
+      </c>
+      <c r="N36" t="n">
+        <v>40100</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>22/12/2022</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>22/12/2022</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>28/11/2022</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SBNP VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SBNPVENTURESLIMITEDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>02/12/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P051746377Y</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>204 miritini builsing</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>miritini road</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>MIRITINI</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Mombasa</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>changamwe District</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>: Miritini</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Mombasa South</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>83559</v>
+      </c>
+      <c r="N37" t="n">
+        <v>80100</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>02/04/2019</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>02/04/2019</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>29/11/2018</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SHREENATHJI DEVELOPERS CO</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SHREENATHJIDEVELOPERSCOITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P051714824F</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SAMEER PARK</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MSA RD</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Nairobi East District</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>: Nairobi East</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>East of Nairobi</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1352</v>
+      </c>
+      <c r="N38" t="n">
+        <v>621</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>01/02/2019</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>16/07/2018</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>16/07/2018</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SHUKRUPA BUILDERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>shukrupabuildersltditax@gmail.com</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P052003791Z</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SHUKRUPA BUILDING</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>DESAI ROAD</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Nairobi East District</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>: Nairobi East</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>East of Nairobi</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>47374</v>
+      </c>
+      <c r="N39" t="n">
+        <v>100</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>27/07/2021</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>22/03/2021</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SHUKRUPA CHILDREN'S CLINIC &amp; VACCINATION CENTRE
+LTD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LTD
+shukrupachildrensitax@gmail.com</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>27/09/2021</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P052056078I</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SHUKRUPA BUILDING</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>: NA
+DESAI ROAD</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SHUKRUPA BUILDING
+NA</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>oad :DESAI ROAD
+Nairobi</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>n : NA
+Westlands District</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Nairobi
+: Westlands</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Westlands District
+West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Westlands
+47374</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>100</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Tax Obligation(s)
+Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>fective From Date
+27/09/2021</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>ective Till Date
+N.A.</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>27/09/2021</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SIMSTEL CONNECT LIMITED</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SIMSTELCONNECTLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13/04/2022</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P051853511Y</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PARK SUITES BUILDING</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PARKLANDS ROAD</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Starehe District</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>: Parklands</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>38718</v>
+      </c>
+      <c r="N41" t="n">
+        <v>600</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>20/07/2021</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UNIVERSAL AUTO EXPERTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UNIVERSALAUTOEXPERTSLLDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>25/02/2020</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>P051883717J</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>WESTLANDS</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>LOWER KABETE RD</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NAIROBI</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>38902</v>
+      </c>
+      <c r="N42" t="n">
+        <v>623</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>25/02/2020</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>25/02/2020</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>25/02/2020</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UNIVERSAL MOTORS LIMITED</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UNIVERSALMOTORSITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24/05/2022</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P051467349O</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PARKLANDS</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>GENERAL MATHENGE ROAD</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NAIROBI CITY (NORTH)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>North of Nairobi*</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>38902</v>
+      </c>
+      <c r="N43" t="n">
+        <v>623</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>30/04/2014</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>30/04/2014</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>30/04/2014</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>VISHNU BUILDERS &amp; DEVELOPERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VISHNUBUILDERSITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>P051395689Y</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>VISHNU BUILDERS &amp; DEVELOPERS LIMITED</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VISHNUBUILDERSITAX@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>chambers</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>CHAMBERS ROAD</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>NAIROBI CITY (WEST)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Nairobi</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Westlands District</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>: Westlands</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>West of Nairobi</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>13706</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="M44" t="n">
+        <v>1352</v>
+      </c>
+      <c r="N44" t="n">
+        <v>621</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>30/07/2012</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>30/07/2012</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>31/07/2012</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>WILDERNESS IN LUXURY DESTINATIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WILDERNESSLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P052189542H</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Corner Plaza</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Parklands Road</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>15</v>
+      </c>
+      <c r="N45" t="n">
+        <v>606</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>29/01/2023</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>XEROX PROPERTIES LIMITED</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>xeroxpropertiesltditax@gmail.com</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17/07/2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>P052237021T</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PARKSUITS BUILDING</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MOMBASA ROAD</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Starehe District</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>: Parklands</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>North of Nairobi</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>43894</v>
+      </c>
+      <c r="N46" t="n">
+        <v>100</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Income Tax - Company</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>13/07/2023</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>XTRA CAB CABLES LTD</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>XTRACABCABLESLTDITAX@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P052191233J</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Third Floor Kalson towers</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cresent road parksland</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Nairobi</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Westlands District</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>: Westlands</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>West of Nairobi</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>13684</v>
+      </c>
+      <c r="N47" t="n">
         <v>800</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Income Tax - PAYE</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Value Added Tax (VAT)</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
         <is>
           <t>Income Tax - Company</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>30/07/2012</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Income Tax - PAYE</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>30/07/2012</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Value Added Tax (VAT)</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>31/07/2012</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>02/02/2023</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
